--- a/Code/Results/Cases/Case_1_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9863736287486543</v>
+        <v>1.017102856055299</v>
       </c>
       <c r="D2">
-        <v>1.023675155553244</v>
+        <v>1.028391008553387</v>
       </c>
       <c r="E2">
-        <v>0.9947174540935088</v>
+        <v>1.018544776484532</v>
       </c>
       <c r="F2">
-        <v>0.9624902956750695</v>
+        <v>1.015459048434933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039747906903568</v>
+        <v>1.030222706043753</v>
       </c>
       <c r="J2">
-        <v>1.008969683681409</v>
+        <v>1.022318879346831</v>
       </c>
       <c r="K2">
-        <v>1.034814224280294</v>
+        <v>1.031207962458893</v>
       </c>
       <c r="L2">
-        <v>1.006250877086126</v>
+        <v>1.021390675308571</v>
       </c>
       <c r="M2">
-        <v>0.9744981738295108</v>
+        <v>1.018314144156688</v>
       </c>
       <c r="N2">
-        <v>1.006986269454082</v>
+        <v>1.011535190582853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9904718387822715</v>
+        <v>1.017955109450439</v>
       </c>
       <c r="D3">
-        <v>1.025711593368232</v>
+        <v>1.028823679859129</v>
       </c>
       <c r="E3">
-        <v>0.9979426810446582</v>
+        <v>1.019264920005833</v>
       </c>
       <c r="F3">
-        <v>0.9693201345396432</v>
+        <v>1.016951933063509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040549379132831</v>
+        <v>1.030338368904945</v>
       </c>
       <c r="J3">
-        <v>1.011225664823546</v>
+        <v>1.022807384840872</v>
       </c>
       <c r="K3">
-        <v>1.03602572875982</v>
+        <v>1.031449572333836</v>
       </c>
       <c r="L3">
-        <v>1.008601953508945</v>
+        <v>1.021916888089709</v>
       </c>
       <c r="M3">
-        <v>0.9803612270828816</v>
+        <v>1.019610290616794</v>
       </c>
       <c r="N3">
-        <v>1.007746464415676</v>
+        <v>1.011698472467801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9930679290316363</v>
+        <v>1.01850679083764</v>
       </c>
       <c r="D4">
-        <v>1.027006968550024</v>
+        <v>1.029103856349498</v>
       </c>
       <c r="E4">
-        <v>0.9999916707347823</v>
+        <v>1.019731482279518</v>
       </c>
       <c r="F4">
-        <v>0.9736317665431452</v>
+        <v>1.01791811974935</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041048142611309</v>
+        <v>1.030412093533878</v>
       </c>
       <c r="J4">
-        <v>1.012650635621726</v>
+        <v>1.023123076464071</v>
       </c>
       <c r="K4">
-        <v>1.036790013896304</v>
+        <v>1.031605386702157</v>
       </c>
       <c r="L4">
-        <v>1.010090196284442</v>
+        <v>1.022257296765029</v>
       </c>
       <c r="M4">
-        <v>0.9840592072765111</v>
+        <v>1.020448688472642</v>
       </c>
       <c r="N4">
-        <v>1.008226477535233</v>
+        <v>1.01180394401526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9941464769012428</v>
+        <v>1.018738768946457</v>
       </c>
       <c r="D5">
-        <v>1.027546320695761</v>
+        <v>1.029221690989423</v>
       </c>
       <c r="E5">
-        <v>1.000844307380839</v>
+        <v>1.019927763266207</v>
       </c>
       <c r="F5">
-        <v>0.9754198847977619</v>
+        <v>1.018324354428606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041253167981466</v>
+        <v>1.030442819504783</v>
       </c>
       <c r="J5">
-        <v>1.013241643647809</v>
+        <v>1.023255696111768</v>
       </c>
       <c r="K5">
-        <v>1.03710671617916</v>
+        <v>1.031670764801687</v>
       </c>
       <c r="L5">
-        <v>1.010708208348897</v>
+        <v>1.022400383378366</v>
       </c>
       <c r="M5">
-        <v>0.985592002002464</v>
+        <v>1.020801083677376</v>
       </c>
       <c r="N5">
-        <v>1.008425522007648</v>
+        <v>1.01184824032295</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9943268301919703</v>
+        <v>1.018777722080773</v>
       </c>
       <c r="D6">
-        <v>1.027636577459788</v>
+        <v>1.029241478736703</v>
       </c>
       <c r="E6">
-        <v>1.000986964357508</v>
+        <v>1.019960727784414</v>
       </c>
       <c r="F6">
-        <v>0.975718717589235</v>
+        <v>1.018392566060602</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041287322354179</v>
+        <v>1.03044796280959</v>
       </c>
       <c r="J6">
-        <v>1.013340412325749</v>
+        <v>1.023277957828781</v>
       </c>
       <c r="K6">
-        <v>1.037159624711818</v>
+        <v>1.031681734640179</v>
       </c>
       <c r="L6">
-        <v>1.01081153452023</v>
+        <v>1.022424406991152</v>
       </c>
       <c r="M6">
-        <v>0.9858481150753514</v>
+        <v>1.020860248540983</v>
       </c>
       <c r="N6">
-        <v>1.008458783581121</v>
+        <v>1.011855675286541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9930823904949799</v>
+        <v>1.018509890339801</v>
       </c>
       <c r="D7">
-        <v>1.027014195764875</v>
+        <v>1.029105430673461</v>
       </c>
       <c r="E7">
-        <v>1.00000309770394</v>
+        <v>1.019734104453811</v>
       </c>
       <c r="F7">
-        <v>0.9736557540520403</v>
+        <v>1.017923547676128</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041050900337743</v>
+        <v>1.030412505148895</v>
       </c>
       <c r="J7">
-        <v>1.012658563969201</v>
+        <v>1.023124848916342</v>
       </c>
       <c r="K7">
-        <v>1.036794263648188</v>
+        <v>1.03160626078486</v>
       </c>
       <c r="L7">
-        <v>1.010098483886602</v>
+        <v>1.022259208779349</v>
       </c>
       <c r="M7">
-        <v>0.984079772956631</v>
+        <v>1.02045339745451</v>
       </c>
       <c r="N7">
-        <v>1.008229147876976</v>
+        <v>1.011804536077538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9877704819081202</v>
+        <v>1.017390833923287</v>
       </c>
       <c r="D8">
-        <v>1.024368080738205</v>
+        <v>1.028537187539103</v>
       </c>
       <c r="E8">
-        <v>0.9958154943594899</v>
+        <v>1.018788031436844</v>
       </c>
       <c r="F8">
-        <v>0.9648215898226574</v>
+        <v>1.015963538861435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040022936191686</v>
+        <v>1.030262025852253</v>
       </c>
       <c r="J8">
-        <v>1.009739483606929</v>
+        <v>1.02248405551571</v>
       </c>
       <c r="K8">
-        <v>1.035227785471716</v>
+        <v>1.031289723437965</v>
       </c>
       <c r="L8">
-        <v>1.007052447377654</v>
+        <v>1.021568528889323</v>
       </c>
       <c r="M8">
-        <v>0.9765001450417122</v>
+        <v>1.018752246233514</v>
       </c>
       <c r="N8">
-        <v>1.007245698727277</v>
+        <v>1.011590410192247</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9779597674848677</v>
+        <v>1.015420595870977</v>
       </c>
       <c r="D9">
-        <v>1.019528305717472</v>
+        <v>1.027537545360704</v>
       </c>
       <c r="E9">
-        <v>0.9881300950785029</v>
+        <v>1.017125423170531</v>
       </c>
       <c r="F9">
-        <v>0.9483659990759317</v>
+        <v>1.012511024511812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038054941858287</v>
+        <v>1.029988327489813</v>
       </c>
       <c r="J9">
-        <v>1.004315571488861</v>
+        <v>1.021351816702886</v>
       </c>
       <c r="K9">
-        <v>1.032312300457593</v>
+        <v>1.030727978147959</v>
       </c>
       <c r="L9">
-        <v>1.001418734363679</v>
+        <v>1.020350827103264</v>
       </c>
       <c r="M9">
-        <v>0.9623563032980887</v>
+        <v>1.015752179693185</v>
       </c>
       <c r="N9">
-        <v>1.005417275271361</v>
+        <v>1.011211701190615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9710807436968737</v>
+        <v>1.014108265968717</v>
       </c>
       <c r="D10">
-        <v>1.016173936386495</v>
+        <v>1.02687234093594</v>
       </c>
       <c r="E10">
-        <v>0.9827769085299225</v>
+        <v>1.016020093298748</v>
       </c>
       <c r="F10">
-        <v>0.9367000621446774</v>
+        <v>1.010209940016578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036630652435326</v>
+        <v>1.029800150449351</v>
       </c>
       <c r="J10">
-        <v>1.000490663320434</v>
+        <v>1.020594940646718</v>
       </c>
       <c r="K10">
-        <v>1.030257179492661</v>
+        <v>1.030350871721984</v>
       </c>
       <c r="L10">
-        <v>0.9974642535398724</v>
+        <v>1.019538630237741</v>
       </c>
       <c r="M10">
-        <v>0.9523146869760241</v>
+        <v>1.013750286963143</v>
       </c>
       <c r="N10">
-        <v>1.004127396809159</v>
+        <v>1.010958302772797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9680129342725241</v>
+        <v>1.013540294137795</v>
       </c>
       <c r="D11">
-        <v>1.014688964088899</v>
+        <v>1.026584610927721</v>
       </c>
       <c r="E11">
-        <v>0.9803986201369367</v>
+        <v>1.015542213860529</v>
       </c>
       <c r="F11">
-        <v>0.9314586190123522</v>
+        <v>1.009213626436927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03598553965797</v>
+        <v>1.029717318537103</v>
       </c>
       <c r="J11">
-        <v>0.9987797316740072</v>
+        <v>1.020266722387712</v>
       </c>
       <c r="K11">
-        <v>1.029339084590019</v>
+        <v>1.030186973479109</v>
       </c>
       <c r="L11">
-        <v>0.9956999050482148</v>
+        <v>1.019186852421299</v>
       </c>
       <c r="M11">
-        <v>0.9478002222672084</v>
+        <v>1.012882957347765</v>
       </c>
       <c r="N11">
-        <v>1.003550359828612</v>
+        <v>1.010848360839859</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9668591932314016</v>
+        <v>1.013329365921496</v>
       </c>
       <c r="D12">
-        <v>1.014132293395716</v>
+        <v>1.026477783120709</v>
       </c>
       <c r="E12">
-        <v>0.9795056065721972</v>
+        <v>1.015364819542345</v>
       </c>
       <c r="F12">
-        <v>0.9294807599448617</v>
+        <v>1.008843556767267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035741486642633</v>
+        <v>1.029686348669072</v>
       </c>
       <c r="J12">
-        <v>0.9981355087466914</v>
+        <v>1.020144734743144</v>
       </c>
       <c r="K12">
-        <v>1.028993658640392</v>
+        <v>1.030126003881877</v>
       </c>
       <c r="L12">
-        <v>0.9950362691550272</v>
+        <v>1.019056173226375</v>
       </c>
       <c r="M12">
-        <v>0.9460963256732995</v>
+        <v>1.012560713524703</v>
       </c>
       <c r="N12">
-        <v>1.003333082614035</v>
+        <v>1.010807490784012</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9671073321531183</v>
+        <v>1.0133746088416</v>
       </c>
       <c r="D13">
-        <v>1.014251934713411</v>
+        <v>1.026500695852324</v>
       </c>
       <c r="E13">
-        <v>0.9796976052837587</v>
+        <v>1.015402866171834</v>
       </c>
       <c r="F13">
-        <v>0.9299064596950779</v>
+        <v>1.008922937798984</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03579404009236</v>
+        <v>1.0296930009636</v>
       </c>
       <c r="J13">
-        <v>0.9982740990421035</v>
+        <v>1.020170904796207</v>
       </c>
       <c r="K13">
-        <v>1.029067955816677</v>
+        <v>1.030139086147155</v>
       </c>
       <c r="L13">
-        <v>0.9951790037832587</v>
+        <v>1.019084204949701</v>
       </c>
       <c r="M13">
-        <v>0.9464630751111236</v>
+        <v>1.012629839562725</v>
       </c>
       <c r="N13">
-        <v>1.003379825069118</v>
+        <v>1.010816259028499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9679178607981259</v>
+        <v>1.013522857890446</v>
       </c>
       <c r="D14">
-        <v>1.014643054489931</v>
+        <v>1.0265757795205</v>
       </c>
       <c r="E14">
-        <v>0.9803250027682522</v>
+        <v>1.015527548113763</v>
       </c>
       <c r="F14">
-        <v>0.9312957748687184</v>
+        <v>1.009183036279064</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03596545752373</v>
+        <v>1.029714762684803</v>
       </c>
       <c r="J14">
-        <v>0.9987266605885537</v>
+        <v>1.020256640334074</v>
       </c>
       <c r="K14">
-        <v>1.02931062243547</v>
+        <v>1.030181935553699</v>
       </c>
       <c r="L14">
-        <v>0.9956452203885661</v>
+        <v>1.019176050705995</v>
       </c>
       <c r="M14">
-        <v>0.9476599414186511</v>
+        <v>1.012856322209262</v>
       </c>
       <c r="N14">
-        <v>1.003532460572601</v>
+        <v>1.010844983175122</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9684153440109462</v>
+        <v>1.013614204574316</v>
       </c>
       <c r="D15">
-        <v>1.014883356057448</v>
+        <v>1.026622047447434</v>
       </c>
       <c r="E15">
-        <v>0.9807102722473244</v>
+        <v>1.015604383557924</v>
       </c>
       <c r="F15">
-        <v>0.9321475996722594</v>
+        <v>1.009343292118986</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036070481341329</v>
+        <v>1.02972814399091</v>
       </c>
       <c r="J15">
-        <v>0.9990043296803446</v>
+        <v>1.020309455192961</v>
       </c>
       <c r="K15">
-        <v>1.029459548492978</v>
+        <v>1.030208324524619</v>
       </c>
       <c r="L15">
-        <v>0.9959313603682254</v>
+        <v>1.019232638165322</v>
       </c>
       <c r="M15">
-        <v>0.9483937250249361</v>
+        <v>1.012995855046225</v>
       </c>
       <c r="N15">
-        <v>1.003626109763413</v>
+        <v>1.010862676737333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9712823969278076</v>
+        <v>1.014145966230394</v>
       </c>
       <c r="D16">
-        <v>1.016271787324774</v>
+        <v>1.026891443258889</v>
       </c>
       <c r="E16">
-        <v>0.9829334310167037</v>
+        <v>1.016051824156366</v>
       </c>
       <c r="F16">
-        <v>0.9370437166021807</v>
+        <v>1.01027606312902</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036672854658907</v>
+        <v>1.029805619322927</v>
       </c>
       <c r="J16">
-        <v>1.000603018877373</v>
+        <v>1.020616713193858</v>
       </c>
       <c r="K16">
-        <v>1.030317502159045</v>
+        <v>1.030361736366095</v>
       </c>
       <c r="L16">
-        <v>0.9975802128664443</v>
+        <v>1.019561974689856</v>
       </c>
       <c r="M16">
-        <v>0.9526106236415507</v>
+        <v>1.013807837934988</v>
       </c>
       <c r="N16">
-        <v>1.004165289613367</v>
+        <v>1.010965594659838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9730563946558781</v>
+        <v>1.014479600353464</v>
       </c>
       <c r="D17">
-        <v>1.017133872588115</v>
+        <v>1.027060511749794</v>
       </c>
       <c r="E17">
-        <v>0.9843114369889181</v>
+        <v>1.016332689392465</v>
       </c>
       <c r="F17">
-        <v>0.9400624307157754</v>
+        <v>1.010861181176688</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037042996047542</v>
+        <v>1.029853856409555</v>
       </c>
       <c r="J17">
-        <v>1.001590854985421</v>
+        <v>1.020809318090706</v>
       </c>
       <c r="K17">
-        <v>1.030848007448047</v>
+        <v>1.030457805277378</v>
       </c>
       <c r="L17">
-        <v>0.9986002513024788</v>
+        <v>1.019768534691441</v>
       </c>
       <c r="M17">
-        <v>0.955209864497811</v>
+        <v>1.01431703726862</v>
       </c>
       <c r="N17">
-        <v>1.004498439272997</v>
+        <v>1.011030093886618</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9740825956196292</v>
+        <v>1.014674230065411</v>
       </c>
       <c r="D18">
-        <v>1.017633590209291</v>
+        <v>1.027159156136228</v>
       </c>
       <c r="E18">
-        <v>0.9851094237050717</v>
+        <v>1.016496584259385</v>
       </c>
       <c r="F18">
-        <v>0.9418050376267605</v>
+        <v>1.011202477849022</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037256166297256</v>
+        <v>1.029881862001643</v>
       </c>
       <c r="J18">
-        <v>1.002161798343763</v>
+        <v>1.020921614367378</v>
       </c>
       <c r="K18">
-        <v>1.031154731888534</v>
+        <v>1.030513781856274</v>
       </c>
       <c r="L18">
-        <v>0.9991902353715383</v>
+        <v>1.019889008814707</v>
       </c>
       <c r="M18">
-        <v>0.9567100525421491</v>
+        <v>1.014613996977546</v>
       </c>
       <c r="N18">
-        <v>1.004690985260171</v>
+        <v>1.011067694079447</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9744310787322016</v>
+        <v>1.014740598262664</v>
       </c>
       <c r="D19">
-        <v>1.017803457309873</v>
+        <v>1.027192796291828</v>
       </c>
       <c r="E19">
-        <v>0.9853805519077216</v>
+        <v>1.016552480177889</v>
       </c>
       <c r="F19">
-        <v>0.9423962105064411</v>
+        <v>1.011318852574282</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037328394066839</v>
+        <v>1.029891389073633</v>
       </c>
       <c r="J19">
-        <v>1.002355599699821</v>
+        <v>1.020959896533239</v>
       </c>
       <c r="K19">
-        <v>1.031258862085824</v>
+        <v>1.030532858421926</v>
       </c>
       <c r="L19">
-        <v>0.9993905721252804</v>
+        <v>1.019930085865681</v>
       </c>
       <c r="M19">
-        <v>0.9572189381555937</v>
+        <v>1.014715244614174</v>
       </c>
       <c r="N19">
-        <v>1.004756342056958</v>
+        <v>1.011080511187866</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9728669507654799</v>
+        <v>1.014443801818079</v>
       </c>
       <c r="D20">
-        <v>1.017041703343123</v>
+        <v>1.027042369227425</v>
       </c>
       <c r="E20">
-        <v>0.9841641917426512</v>
+        <v>1.016302547868217</v>
       </c>
       <c r="F20">
-        <v>0.9397404459767857</v>
+        <v>1.01079840283802</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037003566585331</v>
+        <v>1.029848694499579</v>
       </c>
       <c r="J20">
-        <v>1.001485415373403</v>
+        <v>1.020788658257481</v>
       </c>
       <c r="K20">
-        <v>1.030791370745854</v>
+        <v>1.030447504066585</v>
       </c>
       <c r="L20">
-        <v>0.9984913298700396</v>
+        <v>1.019746373668225</v>
       </c>
       <c r="M20">
-        <v>0.9549326496531588</v>
+        <v>1.014262409958391</v>
       </c>
       <c r="N20">
-        <v>1.004462880121634</v>
+        <v>1.011023175912997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9676795798577296</v>
+        <v>1.013479201083247</v>
       </c>
       <c r="D21">
-        <v>1.014528021560896</v>
+        <v>1.026553667915181</v>
       </c>
       <c r="E21">
-        <v>0.9801405198140813</v>
+        <v>1.015490829307948</v>
       </c>
       <c r="F21">
-        <v>0.9308875313085065</v>
+        <v>1.009106443647489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03591510303412</v>
+        <v>1.029708359984412</v>
       </c>
       <c r="J21">
-        <v>0.9985936369678523</v>
+        <v>1.020231395361982</v>
       </c>
       <c r="K21">
-        <v>1.02923928615693</v>
+        <v>1.03016931996186</v>
       </c>
       <c r="L21">
-        <v>0.9955081636545337</v>
+        <v>1.019149004782139</v>
       </c>
       <c r="M21">
-        <v>0.9473082574879926</v>
+        <v>1.012789630930101</v>
       </c>
       <c r="N21">
-        <v>1.00348759572989</v>
+        <v>1.010836525532198</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9643353375199096</v>
+        <v>1.01287296041271</v>
       </c>
       <c r="D22">
-        <v>1.01291803276662</v>
+        <v>1.026246680127249</v>
       </c>
       <c r="E22">
-        <v>0.9775547612329434</v>
+        <v>1.014981114476163</v>
       </c>
       <c r="F22">
-        <v>0.9251408703064725</v>
+        <v>1.008042671332159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035205022746501</v>
+        <v>1.029618955241414</v>
       </c>
       <c r="J22">
-        <v>0.99672481199723</v>
+        <v>1.019880601155658</v>
       </c>
       <c r="K22">
-        <v>1.028237852327863</v>
+        <v>1.029993891482196</v>
       </c>
       <c r="L22">
-        <v>0.9935843728027483</v>
+        <v>1.018773338808615</v>
       </c>
       <c r="M22">
-        <v>0.9423569787209748</v>
+        <v>1.011863177154027</v>
       </c>
       <c r="N22">
-        <v>1.002857295964027</v>
+        <v>1.010718981749224</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9661163214828395</v>
+        <v>1.013194316984083</v>
       </c>
       <c r="D23">
-        <v>1.01377438979155</v>
+        <v>1.026409393243774</v>
       </c>
       <c r="E23">
-        <v>0.9789310170805885</v>
+        <v>1.015251262545567</v>
       </c>
       <c r="F23">
-        <v>0.9282052668022278</v>
+        <v>1.008606596080921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035583946730084</v>
+        <v>1.029666461232894</v>
       </c>
       <c r="J23">
-        <v>0.9977204867046996</v>
+        <v>1.020066603620817</v>
       </c>
       <c r="K23">
-        <v>1.028771214903777</v>
+        <v>1.030086938704433</v>
       </c>
       <c r="L23">
-        <v>0.9946089406176534</v>
+        <v>1.018972493545192</v>
       </c>
       <c r="M23">
-        <v>0.9449974129033467</v>
+        <v>1.012354352804369</v>
       </c>
       <c r="N23">
-        <v>1.003193107702002</v>
+        <v>1.010781311828813</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9729525786415653</v>
+        <v>1.014459977553133</v>
       </c>
       <c r="D24">
-        <v>1.017083360291677</v>
+        <v>1.027050566961111</v>
       </c>
       <c r="E24">
-        <v>0.9842307433560825</v>
+        <v>1.01631616730649</v>
       </c>
       <c r="F24">
-        <v>0.9398859929561512</v>
+        <v>1.010826769643494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037021391477166</v>
+        <v>1.029851027347094</v>
       </c>
       <c r="J24">
-        <v>1.001533075167714</v>
+        <v>1.02079799369169</v>
       </c>
       <c r="K24">
-        <v>1.030816970797475</v>
+        <v>1.030452158922098</v>
       </c>
       <c r="L24">
-        <v>0.9985405621548433</v>
+        <v>1.019756387307981</v>
       </c>
       <c r="M24">
-        <v>0.9550579601106586</v>
+        <v>1.01428709383465</v>
       </c>
       <c r="N24">
-        <v>1.004478953243847</v>
+        <v>1.011026301912729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9805529598588971</v>
+        <v>1.015929747062111</v>
       </c>
       <c r="D25">
-        <v>1.020801350875375</v>
+        <v>1.027795768254838</v>
       </c>
       <c r="E25">
-        <v>0.9901555768408594</v>
+        <v>1.017554709134108</v>
       </c>
       <c r="F25">
-        <v>0.9527349936374424</v>
+        <v>1.013403458605117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038582959213638</v>
+        <v>1.030060093715263</v>
       </c>
       <c r="J25">
-        <v>1.005752998909482</v>
+        <v>1.021644890380276</v>
       </c>
       <c r="K25">
-        <v>1.033085111936756</v>
+        <v>1.030873666878264</v>
       </c>
       <c r="L25">
-        <v>1.00290866162651</v>
+        <v>1.020665704244386</v>
       </c>
       <c r="M25">
-        <v>0.9661142065375125</v>
+        <v>1.01652807838217</v>
       </c>
       <c r="N25">
-        <v>1.005901939826606</v>
+        <v>1.01130977044374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017102856055299</v>
+        <v>0.9863736287486544</v>
       </c>
       <c r="D2">
-        <v>1.028391008553387</v>
+        <v>1.023675155553244</v>
       </c>
       <c r="E2">
-        <v>1.018544776484532</v>
+        <v>0.994717454093509</v>
       </c>
       <c r="F2">
-        <v>1.015459048434933</v>
+        <v>0.9624902956750696</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030222706043753</v>
+        <v>1.039747906903568</v>
       </c>
       <c r="J2">
-        <v>1.022318879346831</v>
+        <v>1.008969683681409</v>
       </c>
       <c r="K2">
-        <v>1.031207962458893</v>
+        <v>1.034814224280294</v>
       </c>
       <c r="L2">
-        <v>1.021390675308571</v>
+        <v>1.006250877086126</v>
       </c>
       <c r="M2">
-        <v>1.018314144156688</v>
+        <v>0.9744981738295109</v>
       </c>
       <c r="N2">
-        <v>1.011535190582853</v>
+        <v>1.006986269454082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017955109450439</v>
+        <v>0.990471838782271</v>
       </c>
       <c r="D3">
-        <v>1.028823679859129</v>
+        <v>1.025711593368232</v>
       </c>
       <c r="E3">
-        <v>1.019264920005833</v>
+        <v>0.9979426810446577</v>
       </c>
       <c r="F3">
-        <v>1.016951933063509</v>
+        <v>0.9693201345396422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030338368904945</v>
+        <v>1.040549379132831</v>
       </c>
       <c r="J3">
-        <v>1.022807384840872</v>
+        <v>1.011225664823546</v>
       </c>
       <c r="K3">
-        <v>1.031449572333836</v>
+        <v>1.03602572875982</v>
       </c>
       <c r="L3">
-        <v>1.021916888089709</v>
+        <v>1.008601953508945</v>
       </c>
       <c r="M3">
-        <v>1.019610290616794</v>
+        <v>0.9803612270828809</v>
       </c>
       <c r="N3">
-        <v>1.011698472467801</v>
+        <v>1.007746464415676</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01850679083764</v>
+        <v>0.9930679290316365</v>
       </c>
       <c r="D4">
-        <v>1.029103856349498</v>
+        <v>1.027006968550024</v>
       </c>
       <c r="E4">
-        <v>1.019731482279518</v>
+        <v>0.9999916707347827</v>
       </c>
       <c r="F4">
-        <v>1.01791811974935</v>
+        <v>0.9736317665431454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030412093533878</v>
+        <v>1.041048142611309</v>
       </c>
       <c r="J4">
-        <v>1.023123076464071</v>
+        <v>1.012650635621726</v>
       </c>
       <c r="K4">
-        <v>1.031605386702157</v>
+        <v>1.036790013896304</v>
       </c>
       <c r="L4">
-        <v>1.022257296765029</v>
+        <v>1.010090196284442</v>
       </c>
       <c r="M4">
-        <v>1.020448688472642</v>
+        <v>0.9840592072765113</v>
       </c>
       <c r="N4">
-        <v>1.01180394401526</v>
+        <v>1.008226477535233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018738768946457</v>
+        <v>0.9941464769012425</v>
       </c>
       <c r="D5">
-        <v>1.029221690989423</v>
+        <v>1.027546320695762</v>
       </c>
       <c r="E5">
-        <v>1.019927763266207</v>
+        <v>1.000844307380839</v>
       </c>
       <c r="F5">
-        <v>1.018324354428606</v>
+        <v>0.9754198847977616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030442819504783</v>
+        <v>1.041253167981466</v>
       </c>
       <c r="J5">
-        <v>1.023255696111768</v>
+        <v>1.013241643647808</v>
       </c>
       <c r="K5">
-        <v>1.031670764801687</v>
+        <v>1.037106716179161</v>
       </c>
       <c r="L5">
-        <v>1.022400383378366</v>
+        <v>1.010708208348897</v>
       </c>
       <c r="M5">
-        <v>1.020801083677376</v>
+        <v>0.9855920020024638</v>
       </c>
       <c r="N5">
-        <v>1.01184824032295</v>
+        <v>1.008425522007648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018777722080773</v>
+        <v>0.9943268301919698</v>
       </c>
       <c r="D6">
-        <v>1.029241478736703</v>
+        <v>1.027636577459787</v>
       </c>
       <c r="E6">
-        <v>1.019960727784414</v>
+        <v>1.000986964357508</v>
       </c>
       <c r="F6">
-        <v>1.018392566060602</v>
+        <v>0.9757187175892347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03044796280959</v>
+        <v>1.041287322354179</v>
       </c>
       <c r="J6">
-        <v>1.023277957828781</v>
+        <v>1.013340412325749</v>
       </c>
       <c r="K6">
-        <v>1.031681734640179</v>
+        <v>1.037159624711817</v>
       </c>
       <c r="L6">
-        <v>1.022424406991152</v>
+        <v>1.01081153452023</v>
       </c>
       <c r="M6">
-        <v>1.020860248540983</v>
+        <v>0.985848115075351</v>
       </c>
       <c r="N6">
-        <v>1.011855675286541</v>
+        <v>1.008458783581121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018509890339801</v>
+        <v>0.9930823904949795</v>
       </c>
       <c r="D7">
-        <v>1.029105430673461</v>
+        <v>1.027014195764875</v>
       </c>
       <c r="E7">
-        <v>1.019734104453811</v>
+        <v>1.000003097703939</v>
       </c>
       <c r="F7">
-        <v>1.017923547676128</v>
+        <v>0.9736557540520394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030412505148895</v>
+        <v>1.041050900337743</v>
       </c>
       <c r="J7">
-        <v>1.023124848916342</v>
+        <v>1.0126585639692</v>
       </c>
       <c r="K7">
-        <v>1.03160626078486</v>
+        <v>1.036794263648188</v>
       </c>
       <c r="L7">
-        <v>1.022259208779349</v>
+        <v>1.010098483886602</v>
       </c>
       <c r="M7">
-        <v>1.02045339745451</v>
+        <v>0.98407977295663</v>
       </c>
       <c r="N7">
-        <v>1.011804536077538</v>
+        <v>1.008229147876976</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017390833923287</v>
+        <v>0.98777048190812</v>
       </c>
       <c r="D8">
-        <v>1.028537187539103</v>
+        <v>1.024368080738205</v>
       </c>
       <c r="E8">
-        <v>1.018788031436844</v>
+        <v>0.9958154943594898</v>
       </c>
       <c r="F8">
-        <v>1.015963538861435</v>
+        <v>0.9648215898226572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030262025852253</v>
+        <v>1.040022936191686</v>
       </c>
       <c r="J8">
-        <v>1.02248405551571</v>
+        <v>1.009739483606929</v>
       </c>
       <c r="K8">
-        <v>1.031289723437965</v>
+        <v>1.035227785471716</v>
       </c>
       <c r="L8">
-        <v>1.021568528889323</v>
+        <v>1.007052447377654</v>
       </c>
       <c r="M8">
-        <v>1.018752246233514</v>
+        <v>0.976500145041712</v>
       </c>
       <c r="N8">
-        <v>1.011590410192247</v>
+        <v>1.007245698727277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015420595870977</v>
+        <v>0.9779597674848677</v>
       </c>
       <c r="D9">
-        <v>1.027537545360704</v>
+        <v>1.019528305717472</v>
       </c>
       <c r="E9">
-        <v>1.017125423170531</v>
+        <v>0.9881300950785029</v>
       </c>
       <c r="F9">
-        <v>1.012511024511812</v>
+        <v>0.9483659990759319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029988327489813</v>
+        <v>1.038054941858286</v>
       </c>
       <c r="J9">
-        <v>1.021351816702886</v>
+        <v>1.004315571488861</v>
       </c>
       <c r="K9">
-        <v>1.030727978147959</v>
+        <v>1.032312300457593</v>
       </c>
       <c r="L9">
-        <v>1.020350827103264</v>
+        <v>1.001418734363679</v>
       </c>
       <c r="M9">
-        <v>1.015752179693185</v>
+        <v>0.9623563032980889</v>
       </c>
       <c r="N9">
-        <v>1.011211701190615</v>
+        <v>1.005417275271361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014108265968717</v>
+        <v>0.9710807436968731</v>
       </c>
       <c r="D10">
-        <v>1.02687234093594</v>
+        <v>1.016173936386495</v>
       </c>
       <c r="E10">
-        <v>1.016020093298748</v>
+        <v>0.9827769085299222</v>
       </c>
       <c r="F10">
-        <v>1.010209940016578</v>
+        <v>0.9367000621446774</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029800150449351</v>
+        <v>1.036630652435326</v>
       </c>
       <c r="J10">
-        <v>1.020594940646718</v>
+        <v>1.000490663320433</v>
       </c>
       <c r="K10">
-        <v>1.030350871721984</v>
+        <v>1.030257179492661</v>
       </c>
       <c r="L10">
-        <v>1.019538630237741</v>
+        <v>0.9974642535398721</v>
       </c>
       <c r="M10">
-        <v>1.013750286963143</v>
+        <v>0.9523146869760239</v>
       </c>
       <c r="N10">
-        <v>1.010958302772797</v>
+        <v>1.004127396809159</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013540294137795</v>
+        <v>0.9680129342725244</v>
       </c>
       <c r="D11">
-        <v>1.026584610927721</v>
+        <v>1.014688964088899</v>
       </c>
       <c r="E11">
-        <v>1.015542213860529</v>
+        <v>0.980398620136937</v>
       </c>
       <c r="F11">
-        <v>1.009213626436927</v>
+        <v>0.9314586190123522</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029717318537103</v>
+        <v>1.03598553965797</v>
       </c>
       <c r="J11">
-        <v>1.020266722387712</v>
+        <v>0.9987797316740075</v>
       </c>
       <c r="K11">
-        <v>1.030186973479109</v>
+        <v>1.029339084590019</v>
       </c>
       <c r="L11">
-        <v>1.019186852421299</v>
+        <v>0.995699905048215</v>
       </c>
       <c r="M11">
-        <v>1.012882957347765</v>
+        <v>0.9478002222672085</v>
       </c>
       <c r="N11">
-        <v>1.010848360839859</v>
+        <v>1.003550359828612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013329365921496</v>
+        <v>0.9668591932314015</v>
       </c>
       <c r="D12">
-        <v>1.026477783120709</v>
+        <v>1.014132293395716</v>
       </c>
       <c r="E12">
-        <v>1.015364819542345</v>
+        <v>0.9795056065721972</v>
       </c>
       <c r="F12">
-        <v>1.008843556767267</v>
+        <v>0.9294807599448611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029686348669072</v>
+        <v>1.035741486642633</v>
       </c>
       <c r="J12">
-        <v>1.020144734743144</v>
+        <v>0.9981355087466912</v>
       </c>
       <c r="K12">
-        <v>1.030126003881877</v>
+        <v>1.028993658640392</v>
       </c>
       <c r="L12">
-        <v>1.019056173226375</v>
+        <v>0.9950362691550271</v>
       </c>
       <c r="M12">
-        <v>1.012560713524703</v>
+        <v>0.9460963256732992</v>
       </c>
       <c r="N12">
-        <v>1.010807490784012</v>
+        <v>1.003333082614035</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0133746088416</v>
+        <v>0.9671073321531191</v>
       </c>
       <c r="D13">
-        <v>1.026500695852324</v>
+        <v>1.014251934713411</v>
       </c>
       <c r="E13">
-        <v>1.015402866171834</v>
+        <v>0.9796976052837594</v>
       </c>
       <c r="F13">
-        <v>1.008922937798984</v>
+        <v>0.9299064596950785</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0296930009636</v>
+        <v>1.03579404009236</v>
       </c>
       <c r="J13">
-        <v>1.020170904796207</v>
+        <v>0.998274099042104</v>
       </c>
       <c r="K13">
-        <v>1.030139086147155</v>
+        <v>1.029067955816677</v>
       </c>
       <c r="L13">
-        <v>1.019084204949701</v>
+        <v>0.9951790037832593</v>
       </c>
       <c r="M13">
-        <v>1.012629839562725</v>
+        <v>0.946463075111124</v>
       </c>
       <c r="N13">
-        <v>1.010816259028499</v>
+        <v>1.003379825069118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013522857890446</v>
+        <v>0.9679178607981254</v>
       </c>
       <c r="D14">
-        <v>1.0265757795205</v>
+        <v>1.014643054489931</v>
       </c>
       <c r="E14">
-        <v>1.015527548113763</v>
+        <v>0.9803250027682517</v>
       </c>
       <c r="F14">
-        <v>1.009183036279064</v>
+        <v>0.931295774868718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029714762684803</v>
+        <v>1.03596545752373</v>
       </c>
       <c r="J14">
-        <v>1.020256640334074</v>
+        <v>0.9987266605885532</v>
       </c>
       <c r="K14">
-        <v>1.030181935553699</v>
+        <v>1.02931062243547</v>
       </c>
       <c r="L14">
-        <v>1.019176050705995</v>
+        <v>0.9956452203885655</v>
       </c>
       <c r="M14">
-        <v>1.012856322209262</v>
+        <v>0.9476599414186504</v>
       </c>
       <c r="N14">
-        <v>1.010844983175122</v>
+        <v>1.003532460572601</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013614204574316</v>
+        <v>0.9684153440109454</v>
       </c>
       <c r="D15">
-        <v>1.026622047447434</v>
+        <v>1.014883356057448</v>
       </c>
       <c r="E15">
-        <v>1.015604383557924</v>
+        <v>0.9807102722473238</v>
       </c>
       <c r="F15">
-        <v>1.009343292118986</v>
+        <v>0.9321475996722585</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02972814399091</v>
+        <v>1.036070481341328</v>
       </c>
       <c r="J15">
-        <v>1.020309455192961</v>
+        <v>0.9990043296803439</v>
       </c>
       <c r="K15">
-        <v>1.030208324524619</v>
+        <v>1.029459548492978</v>
       </c>
       <c r="L15">
-        <v>1.019232638165322</v>
+        <v>0.9959313603682247</v>
       </c>
       <c r="M15">
-        <v>1.012995855046225</v>
+        <v>0.9483937250249352</v>
       </c>
       <c r="N15">
-        <v>1.010862676737333</v>
+        <v>1.003626109763413</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014145966230394</v>
+        <v>0.9712823969278069</v>
       </c>
       <c r="D16">
-        <v>1.026891443258889</v>
+        <v>1.016271787324774</v>
       </c>
       <c r="E16">
-        <v>1.016051824156366</v>
+        <v>0.9829334310167029</v>
       </c>
       <c r="F16">
-        <v>1.01027606312902</v>
+        <v>0.9370437166021798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029805619322927</v>
+        <v>1.036672854658907</v>
       </c>
       <c r="J16">
-        <v>1.020616713193858</v>
+        <v>1.000603018877372</v>
       </c>
       <c r="K16">
-        <v>1.030361736366095</v>
+        <v>1.030317502159045</v>
       </c>
       <c r="L16">
-        <v>1.019561974689856</v>
+        <v>0.9975802128664436</v>
       </c>
       <c r="M16">
-        <v>1.013807837934988</v>
+        <v>0.9526106236415499</v>
       </c>
       <c r="N16">
-        <v>1.010965594659838</v>
+        <v>1.004165289613367</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014479600353464</v>
+        <v>0.973056394655878</v>
       </c>
       <c r="D17">
-        <v>1.027060511749794</v>
+        <v>1.017133872588115</v>
       </c>
       <c r="E17">
-        <v>1.016332689392465</v>
+        <v>0.984311436988918</v>
       </c>
       <c r="F17">
-        <v>1.010861181176688</v>
+        <v>0.9400624307157752</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029853856409555</v>
+        <v>1.037042996047542</v>
       </c>
       <c r="J17">
-        <v>1.020809318090706</v>
+        <v>1.001590854985421</v>
       </c>
       <c r="K17">
-        <v>1.030457805277378</v>
+        <v>1.030848007448047</v>
       </c>
       <c r="L17">
-        <v>1.019768534691441</v>
+        <v>0.9986002513024785</v>
       </c>
       <c r="M17">
-        <v>1.01431703726862</v>
+        <v>0.9552098644978109</v>
       </c>
       <c r="N17">
-        <v>1.011030093886618</v>
+        <v>1.004498439272997</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014674230065411</v>
+        <v>0.9740825956196286</v>
       </c>
       <c r="D18">
-        <v>1.027159156136228</v>
+        <v>1.017633590209291</v>
       </c>
       <c r="E18">
-        <v>1.016496584259385</v>
+        <v>0.9851094237050712</v>
       </c>
       <c r="F18">
-        <v>1.011202477849022</v>
+        <v>0.9418050376267602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029881862001643</v>
+        <v>1.037256166297255</v>
       </c>
       <c r="J18">
-        <v>1.020921614367378</v>
+        <v>1.002161798343763</v>
       </c>
       <c r="K18">
-        <v>1.030513781856274</v>
+        <v>1.031154731888533</v>
       </c>
       <c r="L18">
-        <v>1.019889008814707</v>
+        <v>0.9991902353715377</v>
       </c>
       <c r="M18">
-        <v>1.014613996977546</v>
+        <v>0.9567100525421488</v>
       </c>
       <c r="N18">
-        <v>1.011067694079447</v>
+        <v>1.004690985260171</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014740598262664</v>
+        <v>0.9744310787322014</v>
       </c>
       <c r="D19">
-        <v>1.027192796291828</v>
+        <v>1.017803457309873</v>
       </c>
       <c r="E19">
-        <v>1.016552480177889</v>
+        <v>0.9853805519077211</v>
       </c>
       <c r="F19">
-        <v>1.011318852574282</v>
+        <v>0.9423962105064412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029891389073633</v>
+        <v>1.037328394066839</v>
       </c>
       <c r="J19">
-        <v>1.020959896533239</v>
+        <v>1.002355599699821</v>
       </c>
       <c r="K19">
-        <v>1.030532858421926</v>
+        <v>1.031258862085823</v>
       </c>
       <c r="L19">
-        <v>1.019930085865681</v>
+        <v>0.99939057212528</v>
       </c>
       <c r="M19">
-        <v>1.014715244614174</v>
+        <v>0.9572189381555938</v>
       </c>
       <c r="N19">
-        <v>1.011080511187866</v>
+        <v>1.004756342056958</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014443801818079</v>
+        <v>0.9728669507654807</v>
       </c>
       <c r="D20">
-        <v>1.027042369227425</v>
+        <v>1.017041703343123</v>
       </c>
       <c r="E20">
-        <v>1.016302547868217</v>
+        <v>0.9841641917426524</v>
       </c>
       <c r="F20">
-        <v>1.01079840283802</v>
+        <v>0.9397404459767869</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029848694499579</v>
+        <v>1.037003566585331</v>
       </c>
       <c r="J20">
-        <v>1.020788658257481</v>
+        <v>1.001485415373404</v>
       </c>
       <c r="K20">
-        <v>1.030447504066585</v>
+        <v>1.030791370745854</v>
       </c>
       <c r="L20">
-        <v>1.019746373668225</v>
+        <v>0.9984913298700407</v>
       </c>
       <c r="M20">
-        <v>1.014262409958391</v>
+        <v>0.9549326496531598</v>
       </c>
       <c r="N20">
-        <v>1.011023175912997</v>
+        <v>1.004462880121634</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013479201083247</v>
+        <v>0.9676795798577289</v>
       </c>
       <c r="D21">
-        <v>1.026553667915181</v>
+        <v>1.014528021560896</v>
       </c>
       <c r="E21">
-        <v>1.015490829307948</v>
+        <v>0.9801405198140806</v>
       </c>
       <c r="F21">
-        <v>1.009106443647489</v>
+        <v>0.9308875313085052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029708359984412</v>
+        <v>1.03591510303412</v>
       </c>
       <c r="J21">
-        <v>1.020231395361982</v>
+        <v>0.9985936369678515</v>
       </c>
       <c r="K21">
-        <v>1.03016931996186</v>
+        <v>1.02923928615693</v>
       </c>
       <c r="L21">
-        <v>1.019149004782139</v>
+        <v>0.9955081636545328</v>
       </c>
       <c r="M21">
-        <v>1.012789630930101</v>
+        <v>0.9473082574879913</v>
       </c>
       <c r="N21">
-        <v>1.010836525532198</v>
+        <v>1.003487595729889</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01287296041271</v>
+        <v>0.9643353375199092</v>
       </c>
       <c r="D22">
-        <v>1.026246680127249</v>
+        <v>1.01291803276662</v>
       </c>
       <c r="E22">
-        <v>1.014981114476163</v>
+        <v>0.9775547612329429</v>
       </c>
       <c r="F22">
-        <v>1.008042671332159</v>
+        <v>0.925140870306472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029618955241414</v>
+        <v>1.035205022746501</v>
       </c>
       <c r="J22">
-        <v>1.019880601155658</v>
+        <v>0.9967248119972295</v>
       </c>
       <c r="K22">
-        <v>1.029993891482196</v>
+        <v>1.028237852327863</v>
       </c>
       <c r="L22">
-        <v>1.018773338808615</v>
+        <v>0.9935843728027479</v>
       </c>
       <c r="M22">
-        <v>1.011863177154027</v>
+        <v>0.9423569787209745</v>
       </c>
       <c r="N22">
-        <v>1.010718981749224</v>
+        <v>1.002857295964027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013194316984083</v>
+        <v>0.9661163214828384</v>
       </c>
       <c r="D23">
-        <v>1.026409393243774</v>
+        <v>1.013774389791549</v>
       </c>
       <c r="E23">
-        <v>1.015251262545567</v>
+        <v>0.9789310170805875</v>
       </c>
       <c r="F23">
-        <v>1.008606596080921</v>
+        <v>0.9282052668022269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029666461232894</v>
+        <v>1.035583946730084</v>
       </c>
       <c r="J23">
-        <v>1.020066603620817</v>
+        <v>0.9977204867046988</v>
       </c>
       <c r="K23">
-        <v>1.030086938704433</v>
+        <v>1.028771214903776</v>
       </c>
       <c r="L23">
-        <v>1.018972493545192</v>
+        <v>0.9946089406176524</v>
       </c>
       <c r="M23">
-        <v>1.012354352804369</v>
+        <v>0.944997412903346</v>
       </c>
       <c r="N23">
-        <v>1.010781311828813</v>
+        <v>1.003193107702002</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014459977553133</v>
+        <v>0.9729525786415646</v>
       </c>
       <c r="D24">
-        <v>1.027050566961111</v>
+        <v>1.017083360291676</v>
       </c>
       <c r="E24">
-        <v>1.01631616730649</v>
+        <v>0.9842307433560818</v>
       </c>
       <c r="F24">
-        <v>1.010826769643494</v>
+        <v>0.9398859929561504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029851027347094</v>
+        <v>1.037021391477166</v>
       </c>
       <c r="J24">
-        <v>1.02079799369169</v>
+        <v>1.001533075167713</v>
       </c>
       <c r="K24">
-        <v>1.030452158922098</v>
+        <v>1.030816970797475</v>
       </c>
       <c r="L24">
-        <v>1.019756387307981</v>
+        <v>0.9985405621548425</v>
       </c>
       <c r="M24">
-        <v>1.01428709383465</v>
+        <v>0.9550579601106579</v>
       </c>
       <c r="N24">
-        <v>1.011026301912729</v>
+        <v>1.004478953243847</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.015929747062111</v>
+        <v>0.9805529598588968</v>
       </c>
       <c r="D25">
-        <v>1.027795768254838</v>
+        <v>1.020801350875374</v>
       </c>
       <c r="E25">
-        <v>1.017554709134108</v>
+        <v>0.9901555768408589</v>
       </c>
       <c r="F25">
-        <v>1.013403458605117</v>
+        <v>0.952734993637442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030060093715263</v>
+        <v>1.038582959213638</v>
       </c>
       <c r="J25">
-        <v>1.021644890380276</v>
+        <v>1.005752998909482</v>
       </c>
       <c r="K25">
-        <v>1.030873666878264</v>
+        <v>1.033085111936756</v>
       </c>
       <c r="L25">
-        <v>1.020665704244386</v>
+        <v>1.002908661626509</v>
       </c>
       <c r="M25">
-        <v>1.01652807838217</v>
+        <v>0.9661142065375121</v>
       </c>
       <c r="N25">
-        <v>1.01130977044374</v>
+        <v>1.005901939826606</v>
       </c>
     </row>
   </sheetData>
